--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value917.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value917.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.51546323590073</v>
+        <v>0.9007083773612976</v>
       </c>
       <c r="B1">
-        <v>1.642331491078352</v>
+        <v>2.131555795669556</v>
       </c>
       <c r="C1">
-        <v>1.909968468808692</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.199614018078287</v>
+        <v>1.848961234092712</v>
       </c>
       <c r="E1">
-        <v>1.664723833714869</v>
+        <v>1.11254870891571</v>
       </c>
     </row>
   </sheetData>
